--- a/output/fit_clients/fit_round_376.xlsx
+++ b/output/fit_clients/fit_round_376.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2396545563.83999</v>
+        <v>1533479581.34932</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08975785493845587</v>
+        <v>0.08449571547194862</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03678112265761195</v>
+        <v>0.0288431485916585</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1198272830.865497</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1656824472.573448</v>
+        <v>1881849579.439175</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1576902259715133</v>
+        <v>0.1377742252697953</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03096687606652511</v>
+        <v>0.03369140159073065</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>828412223.2105771</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3879065983.88098</v>
+        <v>4323646182.509001</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1431363187063902</v>
+        <v>0.1088496899789334</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03359329358762139</v>
+        <v>0.02836456960106155</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>135</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1939532997.555919</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4160451006.813574</v>
+        <v>2619257379.74804</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09626223212532897</v>
+        <v>0.09342481093556576</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03869118067408914</v>
+        <v>0.03299008878165756</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>139</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2080225496.51815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2290758793.642162</v>
+        <v>2726691158.654022</v>
       </c>
       <c r="F6" t="n">
-        <v>0.127650110492878</v>
+        <v>0.1092535610198634</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04485178001389514</v>
+        <v>0.03736211584161752</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>70</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1145379394.961048</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2275811399.53502</v>
+        <v>1959104751.068906</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09610098595532784</v>
+        <v>0.06929915333140721</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0459459385960239</v>
+        <v>0.04464377695413039</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>117</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1137905734.355539</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2775810459.302597</v>
+        <v>3229552601.316748</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1893565556266231</v>
+        <v>0.1594442443564766</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0247762652926796</v>
+        <v>0.03118153302355256</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>119</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1387905264.259377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1567515942.233956</v>
+        <v>2112293309.435895</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1515900359452017</v>
+        <v>0.1276438289351534</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02740183526037043</v>
+        <v>0.03356349184459918</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>783758057.7417984</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5180439079.024372</v>
+        <v>5608691999.502529</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1834262284685574</v>
+        <v>0.1321994871160462</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05054343668270076</v>
+        <v>0.05221844455754967</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>158</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2590219652.808754</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2902021612.744954</v>
+        <v>3973796431.019554</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1720155664638573</v>
+        <v>0.1240862210463254</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04664946701915261</v>
+        <v>0.04506580315988576</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>155</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1451010742.467101</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2792026452.812345</v>
+        <v>3318767148.085017</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1621398857181731</v>
+        <v>0.1978724479633674</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04809484974409858</v>
+        <v>0.03483125134716208</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>128</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1396013225.387276</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4617990814.165835</v>
+        <v>5261177817.97415</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09108959717139527</v>
+        <v>0.09702626538932396</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02459544890568899</v>
+        <v>0.02244409624322951</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>126</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2308995430.63515</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2408205178.449919</v>
+        <v>3490600064.049264</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1871099540495876</v>
+        <v>0.1882770180639299</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03327257568272317</v>
+        <v>0.03514682151851078</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>121</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1204102666.531521</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1522405496.39754</v>
+        <v>1821671730.121915</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07778218466732927</v>
+        <v>0.1069762168190096</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04078740976135616</v>
+        <v>0.03474351303090863</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>761202838.7885282</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2341547157.382799</v>
+        <v>1863937298.83022</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0821627054813098</v>
+        <v>0.09668228235151342</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05075447777865874</v>
+        <v>0.03566403852854588</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>76</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1170773623.677891</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4373297728.441674</v>
+        <v>3616885256.026571</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1605376833569556</v>
+        <v>0.1440781094531956</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03616224148809647</v>
+        <v>0.03445065932632738</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>110</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2186648880.371718</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2946887095.466503</v>
+        <v>3366336062.801998</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1556287087691025</v>
+        <v>0.1815966552250891</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02436221316130991</v>
+        <v>0.02546425333459774</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>123</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1473443581.906097</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1129778382.989868</v>
+        <v>1375123079.534707</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1482625647156563</v>
+        <v>0.1497393930021827</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02508899350465439</v>
+        <v>0.01761739583640071</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>564889252.3656425</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2464298988.625055</v>
+        <v>1973013309.348821</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1523661489085316</v>
+        <v>0.1203200768528201</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02594191870307709</v>
+        <v>0.02955656742447348</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>48</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1232149471.198302</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1882623896.521202</v>
+        <v>2143326047.151779</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0979374758528111</v>
+        <v>0.07338042711315641</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04101238384376894</v>
+        <v>0.03697595342036097</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>30</v>
-      </c>
-      <c r="J21" t="n">
-        <v>941311995.4616857</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2601459200.567118</v>
+        <v>3059793957.772393</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1294613718639258</v>
+        <v>0.1210271326047372</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05198751485716413</v>
+        <v>0.04708525021574289</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>105</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1300729685.693404</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>957727118.7712315</v>
+        <v>1021724210.740484</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1700608256772851</v>
+        <v>0.1155271432160996</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03344026243212214</v>
+        <v>0.03423882035682807</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>478863636.6968666</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3656964133.377469</v>
+        <v>4153456596.201589</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1219775535745162</v>
+        <v>0.1154849331070564</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02540004010785719</v>
+        <v>0.02451011471979777</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>110</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1828482057.75825</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1234608672.596553</v>
+        <v>1339044627.019124</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0946135392302612</v>
+        <v>0.08499354412042522</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02753222334030446</v>
+        <v>0.01914018332150852</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>617304346.336367</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>921669694.5399374</v>
+        <v>1117606094.261126</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08756738644610383</v>
+        <v>0.1123499199921381</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03125931086223285</v>
+        <v>0.02508878159902827</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>460834800.2012642</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3511010541.415944</v>
+        <v>4611756933.909122</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1003813063441065</v>
+        <v>0.1164839903452789</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02033020116520474</v>
+        <v>0.01784107476491085</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>84</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1755505305.14804</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3455199192.017863</v>
+        <v>3662952139.475857</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1076244143476694</v>
+        <v>0.1310623928026798</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03810866560552661</v>
+        <v>0.04583688201979177</v>
       </c>
       <c r="H28" t="b">
         <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>120</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1727599646.74386</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4249181854.321305</v>
+        <v>5392226293.692319</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1425742466714326</v>
+        <v>0.09236408481696212</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04604799325431446</v>
+        <v>0.04443686129739909</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>166</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2124590926.758807</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1957080575.545439</v>
+        <v>1638027467.816486</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1148048106256755</v>
+        <v>0.1080580897333849</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03859318898170736</v>
+        <v>0.03125498251061561</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>978540320.3560251</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>978541162.822071</v>
+        <v>927382587.9464608</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09329920498503434</v>
+        <v>0.08395774222571967</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04845186128525788</v>
+        <v>0.03957714806901552</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>489270585.0124779</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1783819210.388518</v>
+        <v>1766892428.918179</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0992977081860171</v>
+        <v>0.08353883839821842</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03559752827674131</v>
+        <v>0.02824486148161344</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>891909732.3516834</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2173117524.444952</v>
+        <v>2252590312.950922</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2006897615370425</v>
+        <v>0.1634358283538989</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04543287396350715</v>
+        <v>0.04265300933890226</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>114</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1086558828.303498</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1024873302.319307</v>
+        <v>1565091050.316577</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08198031242757012</v>
+        <v>0.08005669502887559</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02671353807299886</v>
+        <v>0.020957592229461</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>512436684.9478751</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>885692878.0619777</v>
+        <v>1026064236.715109</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09119386366567105</v>
+        <v>0.1046137941038032</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0350376516102893</v>
+        <v>0.03920466907838784</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>442846482.6726033</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2637409671.953305</v>
+        <v>3205928247.485936</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1190943212158026</v>
+        <v>0.1527215110144576</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0290224232485497</v>
+        <v>0.02406568711822205</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>94</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1318704846.967368</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2344033098.660194</v>
+        <v>2209226805.157264</v>
       </c>
       <c r="F37" t="n">
-        <v>0.103617058451193</v>
+        <v>0.1043609416795256</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03257348706166713</v>
+        <v>0.03603854426974091</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>100</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1172016623.939996</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1680844431.469899</v>
+        <v>1352511140.323037</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1002804880104075</v>
+        <v>0.07806786751845964</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03416080666714383</v>
+        <v>0.03598085656160793</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>840422239.4628747</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1602160561.242869</v>
+        <v>1469234447.918744</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1232598064984888</v>
+        <v>0.1841853502410274</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02519393739985322</v>
+        <v>0.02589765054152156</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>801080335.5916326</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1589184765.781099</v>
+        <v>1486430838.73977</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1304589881023286</v>
+        <v>0.1223943413754655</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05469917441880057</v>
+        <v>0.03910468676113619</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>794592326.7724097</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2865943869.369422</v>
+        <v>2102366083.065988</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1539717001023557</v>
+        <v>0.1006935762403402</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03180208166768532</v>
+        <v>0.04477492800687385</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>97</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1432971924.131181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3438223456.231246</v>
+        <v>2952069478.723576</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09080233990634733</v>
+        <v>0.105940973360195</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03604991943689199</v>
+        <v>0.04610996595716075</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>126</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1719111718.756659</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2023150849.652355</v>
+        <v>2154846320.816724</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1659810816564508</v>
+        <v>0.1581905127713094</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01947347966671617</v>
+        <v>0.02437168158084848</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>132</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1011575521.440131</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1732731469.698012</v>
+        <v>1840468195.856441</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07986668739068059</v>
+        <v>0.1000115587853308</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03279111290207753</v>
+        <v>0.02424521110149848</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>866365787.8720254</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1707660963.641187</v>
+        <v>1991520961.996008</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1214042781360222</v>
+        <v>0.1671506159369749</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04242663138393261</v>
+        <v>0.04955433976251675</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>853830443.2734289</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5017274100.22661</v>
+        <v>4433656302.10452</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1748280087644884</v>
+        <v>0.1681538940341871</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05167906125585094</v>
+        <v>0.03823775988900063</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>133</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2508637077.897371</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4693071748.063213</v>
+        <v>4219657237.97911</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1603099835325912</v>
+        <v>0.1229806876866634</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05536196799308288</v>
+        <v>0.05374609099336832</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>100</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2346535912.455192</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3943798725.99481</v>
+        <v>2984816191.024209</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08744269885117584</v>
+        <v>0.09482118157306098</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02684036410020782</v>
+        <v>0.03630103419395245</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>125</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1971899400.63313</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1428772730.436587</v>
+        <v>1957196686.446912</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1418118219423052</v>
+        <v>0.1734403092771343</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03651459884558564</v>
+        <v>0.04405827418260269</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>714386408.3147043</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3802432730.147754</v>
+        <v>3422484536.507384</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1290255096586771</v>
+        <v>0.1587399735086943</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04090265440588769</v>
+        <v>0.03501679684577105</v>
       </c>
       <c r="H50" t="b">
         <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>128</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1901216367.848686</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1115687110.900535</v>
+        <v>1373820682.115785</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1614653791874571</v>
+        <v>0.1952041914171165</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03574865630446068</v>
+        <v>0.03960275407599417</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>557843620.6773587</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3476540243.530833</v>
+        <v>4500095723.283798</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1076502210095766</v>
+        <v>0.1368477930075608</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05116489842513372</v>
+        <v>0.04472217756389198</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>155</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1738270209.063233</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2762925715.258096</v>
+        <v>2588547925.357625</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1338866171659019</v>
+        <v>0.1724606959362988</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0305557293286666</v>
+        <v>0.02214409833862594</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>108</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1381462906.473305</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4214055237.302397</v>
+        <v>3257793779.20823</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1511422665805553</v>
+        <v>0.1356207365051184</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03743102006768707</v>
+        <v>0.04092505805518802</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>123</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2107027699.552111</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4474367119.492869</v>
+        <v>3959255786.492055</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1671886931970155</v>
+        <v>0.199608778251272</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02751484595828211</v>
+        <v>0.02675360247079388</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>110</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2237183555.627636</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1775960642.341713</v>
+        <v>1778300356.376605</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1217964265033032</v>
+        <v>0.1649564217560325</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05414602721456259</v>
+        <v>0.05831461669189244</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>887980322.5490429</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4562138104.092541</v>
+        <v>2799620767.083334</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1246210025119834</v>
+        <v>0.1756331642775185</v>
       </c>
       <c r="G57" t="n">
-        <v>0.025133924241026</v>
+        <v>0.0198209548703348</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>119</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2281069187.625885</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1847444672.786799</v>
+        <v>1623015769.047111</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1747712173504486</v>
+        <v>0.1910757199154873</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03506635308851864</v>
+        <v>0.02878231904650462</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>923722335.8301666</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5028205638.095535</v>
+        <v>5411781980.604405</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1040962417891863</v>
+        <v>0.1235905047807754</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04111336411741759</v>
+        <v>0.03054127661829915</v>
       </c>
       <c r="H59" t="b">
         <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>104</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2514102745.417892</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3208632892.149991</v>
+        <v>2936149404.569895</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1641526660300094</v>
+        <v>0.1575402831415954</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03330239850788157</v>
+        <v>0.02976581208372352</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>122</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1604316538.322043</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2541393460.883718</v>
+        <v>2852422367.373552</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1436150704470381</v>
+        <v>0.1782993660485761</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02497581386998346</v>
+        <v>0.02068456008893967</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>129</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1270696754.172676</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1563739364.821214</v>
+        <v>1818763887.380205</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1252866808230522</v>
+        <v>0.1698351044370301</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03824913960615832</v>
+        <v>0.04327243452009766</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>781869675.0126214</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3682248973.526937</v>
+        <v>4386682062.652078</v>
       </c>
       <c r="F63" t="n">
-        <v>0.075147958084716</v>
+        <v>0.09435308780621665</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02867487999460756</v>
+        <v>0.04556716786852443</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>107</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1841124563.316832</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5073522956.316962</v>
+        <v>3574129420.372355</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1629084948212158</v>
+        <v>0.1827595759917312</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02512325954346672</v>
+        <v>0.02564537969291042</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>117</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2536761589.544146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3787505726.37164</v>
+        <v>5348769375.957466</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1261627884474854</v>
+        <v>0.1566605952664058</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02980310092313857</v>
+        <v>0.02515523671962977</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>134</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1893752894.47025</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3831863519.006621</v>
+        <v>5392000827.758277</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1327838403704948</v>
+        <v>0.1154194321409042</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03593910300071369</v>
+        <v>0.03677638427603185</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>110</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1915931724.072994</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3092367220.859094</v>
+        <v>3257901675.885646</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1034868898075551</v>
+        <v>0.07021022206445103</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04466096102864799</v>
+        <v>0.04294843973747173</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>120</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1546183620.85239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5073194069.777054</v>
+        <v>5479350135.026746</v>
       </c>
       <c r="F68" t="n">
-        <v>0.128900160675519</v>
+        <v>0.1026142391245264</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03505459610610948</v>
+        <v>0.03292601156442453</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>120</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2536597095.735188</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2179638548.648985</v>
+        <v>2348135832.769735</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1134227886286396</v>
+        <v>0.164860742068084</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05061295164442382</v>
+        <v>0.05693463385428154</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1089819302.506269</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3474768053.507243</v>
+        <v>2254803127.868132</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0816032820625557</v>
+        <v>0.09335768354102432</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04083191572725867</v>
+        <v>0.04481672873545461</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>107</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1737384034.612126</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3725036487.52726</v>
+        <v>5332001242.392154</v>
       </c>
       <c r="F71" t="n">
-        <v>0.142773205606941</v>
+        <v>0.1302551400415461</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02061677459622121</v>
+        <v>0.03247130466733818</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>136</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1862518254.285336</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2266803523.682548</v>
+        <v>1750042018.119745</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07092068158806046</v>
+        <v>0.1057509676133045</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04671320407855177</v>
+        <v>0.04316999261030359</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1133401665.139826</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2364386113.236631</v>
+        <v>2447127347.262602</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08821627923362013</v>
+        <v>0.09131814982308922</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04305076470192116</v>
+        <v>0.04089167582788895</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>142</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1182193110.803124</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3249655326.226676</v>
+        <v>2421500777.269742</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1844127592822433</v>
+        <v>0.1617904276135962</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02838653982994608</v>
+        <v>0.02541073285714204</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>128</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1624827706.938084</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2330199585.750202</v>
+        <v>2240522128.415985</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1210217782572403</v>
+        <v>0.1461778610671852</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03641008125477705</v>
+        <v>0.03488316211223922</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1165099726.065412</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4455094681.539159</v>
+        <v>3736091375.160276</v>
       </c>
       <c r="F76" t="n">
-        <v>0.110158458397835</v>
+        <v>0.09124887549151264</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0289441092596196</v>
+        <v>0.02289812237648243</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>90</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2227547344.60451</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1872756700.52158</v>
+        <v>1429474882.76127</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1789624296660034</v>
+        <v>0.1378002617971718</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02631200049115191</v>
+        <v>0.02605848964505456</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>936378392.9805039</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3927127196.523271</v>
+        <v>3966879945.192897</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08278128352345336</v>
+        <v>0.1299036854531598</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04626584358952476</v>
+        <v>0.05490336276516695</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>130</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1963563569.217201</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1236190730.99728</v>
+        <v>1790837838.283596</v>
       </c>
       <c r="F79" t="n">
-        <v>0.14764451392243</v>
+        <v>0.1709896725032582</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02466893042191324</v>
+        <v>0.03785010725884719</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>618095353.5691497</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4177370553.13562</v>
+        <v>4859573979.011507</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09323777848838108</v>
+        <v>0.07427820206610723</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02777089881745265</v>
+        <v>0.02587740711252563</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>82</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2088685284.88593</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3159354777.41648</v>
+        <v>4073503075.32453</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1244786950011963</v>
+        <v>0.1053055226178968</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03199090220823889</v>
+        <v>0.03107104993881424</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>89</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1579677320.703152</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5274204252.393312</v>
+        <v>4063248214.544804</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2101431426039748</v>
+        <v>0.164819267552432</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0204293620675223</v>
+        <v>0.02325323861140975</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>131</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2637102094.85604</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2042157869.387839</v>
+        <v>1771595044.776122</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09878037077193527</v>
+        <v>0.1547738269607776</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03904210437433593</v>
+        <v>0.04253154230010605</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1021078925.292717</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2156848666.889417</v>
+        <v>2429795750.188266</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07913669228575129</v>
+        <v>0.08172143566693398</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03620710607914383</v>
+        <v>0.04227755942226948</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1078424315.480446</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2497822315.782556</v>
+        <v>2309890338.355948</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1216710570155309</v>
+        <v>0.111295077706614</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03746534880399187</v>
+        <v>0.0524375154716823</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>141</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1248911162.640712</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2569282874.185841</v>
+        <v>1796746843.810248</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1503112193054954</v>
+        <v>0.1460323539610522</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02660770528355608</v>
+        <v>0.01895634376045997</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>50</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1284641543.880458</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1332092538.881181</v>
+        <v>1342290505.227638</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1566052460896998</v>
+        <v>0.1594618101878194</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03197349221941335</v>
+        <v>0.03211732101428545</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>666046358.8829036</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3486026769.295527</v>
+        <v>3434327986.249196</v>
       </c>
       <c r="F88" t="n">
-        <v>0.111633064095029</v>
+        <v>0.1432280603064802</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02741054051551668</v>
+        <v>0.02583033475641303</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>149</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1743013463.138836</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3323501928.838367</v>
+        <v>2893312106.528412</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1244192666239502</v>
+        <v>0.13271440883496</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02589409836518497</v>
+        <v>0.03183925203034793</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>126</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1661750978.815619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1839314412.996789</v>
+        <v>1426616676.022798</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08947798778495002</v>
+        <v>0.1267813519191788</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04443862621723862</v>
+        <v>0.05328107188433949</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>919657247.3163515</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1855718885.138089</v>
+        <v>1840425483.992673</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1899489912165127</v>
+        <v>0.1285525504122939</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04295212440238458</v>
+        <v>0.05025841270838587</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>927859434.0637891</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2727776649.757671</v>
+        <v>2993481797.664485</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0733152042296301</v>
+        <v>0.07478296073778112</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03772805056003622</v>
+        <v>0.03568124219120767</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>106</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1363888326.057969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3529169937.670093</v>
+        <v>3758071539.570864</v>
       </c>
       <c r="F93" t="n">
-        <v>0.109886519993859</v>
+        <v>0.1049468060939214</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04598803754393479</v>
+        <v>0.03369325876220264</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>112</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1764584999.910426</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1810780013.90701</v>
+        <v>1772565814.988636</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1093935629710889</v>
+        <v>0.1361622422647412</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02874159670979091</v>
+        <v>0.04031446063368212</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>905389980.6961859</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3114896382.223973</v>
+        <v>2727774867.61866</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09178566447250258</v>
+        <v>0.1381957790475695</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04806681597139956</v>
+        <v>0.03228912686772616</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>91</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1557448182.504832</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2291089342.993454</v>
+        <v>2122623466.533114</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1263187166073534</v>
+        <v>0.09089501578446647</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02899893737687782</v>
+        <v>0.03771135555525311</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1145544627.406694</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4536608229.402233</v>
+        <v>4127928025.70569</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1436674999586059</v>
+        <v>0.1409638283369542</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02155846371067774</v>
+        <v>0.02885046827640178</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>121</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2268304214.243174</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3533708534.971139</v>
+        <v>3427358475.934773</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08146803419236782</v>
+        <v>0.1111919357057976</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02395006769332913</v>
+        <v>0.0323633786358682</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>99</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1766854288.376245</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2268026522.116663</v>
+        <v>3290672205.649475</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1207172844855648</v>
+        <v>0.09860312257592029</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02752150191472317</v>
+        <v>0.02270016219608353</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>118</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1134013193.995489</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3207193529.951693</v>
+        <v>3141987385.864926</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1174235696619879</v>
+        <v>0.1185992412557177</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0228539867946533</v>
+        <v>0.02355613768772353</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>116</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1603596772.375542</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2307157785.316483</v>
+        <v>2814003064.576085</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1821721008505667</v>
+        <v>0.217109205480105</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05852557432050827</v>
+        <v>0.05658866137696204</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>153</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1153578890.140305</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_376.xlsx
+++ b/output/fit_clients/fit_round_376.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1533479581.34932</v>
+        <v>2471159605.472816</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08449571547194862</v>
+        <v>0.07493323965921729</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0288431485916585</v>
+        <v>0.03381154019587533</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1881849579.439175</v>
+        <v>1867644355.697357</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1377742252697953</v>
+        <v>0.1544579076529711</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03369140159073065</v>
+        <v>0.04526116514352548</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,22 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4323646182.509001</v>
+        <v>3195920139.593865</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1088496899789334</v>
+        <v>0.1298490895536744</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02836456960106155</v>
+        <v>0.03562551461111939</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2619257379.74804</v>
+        <v>2790483692.500961</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09342481093556576</v>
+        <v>0.1005933912905746</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03299008878165756</v>
+        <v>0.04085337696521724</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2726691158.654022</v>
+        <v>2079136139.618021</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1092535610198634</v>
+        <v>0.1473059337646659</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03736211584161752</v>
+        <v>0.05131615091278449</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1959104751.068906</v>
+        <v>2232773182.477313</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06929915333140721</v>
+        <v>0.08007099673841368</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04464377695413039</v>
+        <v>0.03731940034069774</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3229552601.316748</v>
+        <v>3577630057.714942</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1594442443564766</v>
+        <v>0.1489909560493212</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03118153302355256</v>
+        <v>0.02135096339241022</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2112293309.435895</v>
+        <v>1621535850.010132</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1276438289351534</v>
+        <v>0.1681459313493616</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03356349184459918</v>
+        <v>0.02536360447388057</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5608691999.502529</v>
+        <v>4722341481.731656</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1321994871160462</v>
+        <v>0.1591137804363605</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05221844455754967</v>
+        <v>0.0540584833342747</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3973796431.019554</v>
+        <v>4248168503.6553</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1240862210463254</v>
+        <v>0.1735268627107731</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04506580315988576</v>
+        <v>0.04217412512989152</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3318767148.085017</v>
+        <v>2967787447.239899</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1978724479633674</v>
+        <v>0.1849118359607994</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03483125134716208</v>
+        <v>0.0388888184647954</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5261177817.97415</v>
+        <v>3642340694.210092</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09702626538932396</v>
+        <v>0.07037167114038716</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02244409624322951</v>
+        <v>0.02812484406162332</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3490600064.049264</v>
+        <v>3637994208.69946</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1882770180639299</v>
+        <v>0.1303363051552733</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03514682151851078</v>
+        <v>0.03402337107556686</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1821671730.121915</v>
+        <v>1657397930.715849</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1069762168190096</v>
+        <v>0.07277605442570409</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03474351303090863</v>
+        <v>0.0397836150138127</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1863937298.83022</v>
+        <v>1849715489.726307</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09668228235151342</v>
+        <v>0.09097440043959278</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03566403852854588</v>
+        <v>0.03954717461497298</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3616885256.026571</v>
+        <v>3255778499.665488</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1440781094531956</v>
+        <v>0.1277254838774266</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03445065932632738</v>
+        <v>0.03958495451245111</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3366336062.801998</v>
+        <v>3410278216.978983</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1815966552250891</v>
+        <v>0.1221488958511078</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02546425333459774</v>
+        <v>0.02272887357469817</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1375123079.534707</v>
+        <v>906568555.9889786</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1497393930021827</v>
+        <v>0.1524580128138819</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01761739583640071</v>
+        <v>0.02233448236911874</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1973013309.348821</v>
+        <v>2375272735.963033</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1203200768528201</v>
+        <v>0.1366318410811712</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02955656742447348</v>
+        <v>0.02144309955168023</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,16 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2143326047.151779</v>
+        <v>2661413218.941861</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07338042711315641</v>
+        <v>0.07703275286372466</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03697595342036097</v>
+        <v>0.03539228575695173</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3059793957.772393</v>
+        <v>3830998551.786856</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1210271326047372</v>
+        <v>0.1031957402586161</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04708525021574289</v>
+        <v>0.05267220099752574</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1021724210.740484</v>
+        <v>1470393727.038932</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1155271432160996</v>
+        <v>0.1251976943443245</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03423882035682807</v>
+        <v>0.03723511884498543</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4153456596.201589</v>
+        <v>3441832726.215618</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1154849331070564</v>
+        <v>0.1066967989163385</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02451011471979777</v>
+        <v>0.03683880496056238</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1339044627.019124</v>
+        <v>1171797285.043059</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08499354412042522</v>
+        <v>0.1120720513429871</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01914018332150852</v>
+        <v>0.02861066971629514</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1117606094.261126</v>
+        <v>918680571.8490511</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1123499199921381</v>
+        <v>0.08856216293505431</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02508878159902827</v>
+        <v>0.0364412537642036</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4611756933.909122</v>
+        <v>3623120963.867072</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1164839903452789</v>
+        <v>0.130753187577211</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01784107476491085</v>
+        <v>0.026384237240971</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3662952139.475857</v>
+        <v>2385651735.593798</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1310623928026798</v>
+        <v>0.111063563713532</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04583688201979177</v>
+        <v>0.04202121249137444</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5392226293.692319</v>
+        <v>4619373361.043672</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09236408481696212</v>
+        <v>0.1356129791263158</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04443686129739909</v>
+        <v>0.0284597852695343</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1638027467.816486</v>
+        <v>1775459048.70533</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1080580897333849</v>
+        <v>0.1182225498092648</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03125498251061561</v>
+        <v>0.03967402954917588</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>927382587.9464608</v>
+        <v>1125094095.263866</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08395774222571967</v>
+        <v>0.0838077224574531</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03957714806901552</v>
+        <v>0.03988142008498242</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1766892428.918179</v>
+        <v>1775078227.89096</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08353883839821842</v>
+        <v>0.1005410405957694</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02824486148161344</v>
+        <v>0.02365596841830093</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2252590312.950922</v>
+        <v>2090069028.557473</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1634358283538989</v>
+        <v>0.1274289510245891</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04265300933890226</v>
+        <v>0.05074264204930443</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1565091050.316577</v>
+        <v>1418933796.592313</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08005669502887559</v>
+        <v>0.08247573722916858</v>
       </c>
       <c r="G34" t="n">
-        <v>0.020957592229461</v>
+        <v>0.02746182151228606</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1026064236.715109</v>
+        <v>1231101916.091142</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1046137941038032</v>
+        <v>0.1012904850450912</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03920466907838784</v>
+        <v>0.03056696074477563</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3205928247.485936</v>
+        <v>3216657125.639889</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1527215110144576</v>
+        <v>0.1343917496630206</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02406568711822205</v>
+        <v>0.02641277750567482</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2209226805.157264</v>
+        <v>2077137985.429349</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1043609416795256</v>
+        <v>0.1021166667492481</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03603854426974091</v>
+        <v>0.0410330010214516</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,22 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1352511140.323037</v>
+        <v>1505674422.015059</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07806786751845964</v>
+        <v>0.110716961353681</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03598085656160793</v>
+        <v>0.0269961525884298</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1469234447.918744</v>
+        <v>1468667887.634582</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1841853502410274</v>
+        <v>0.190307376029156</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02589765054152156</v>
+        <v>0.023982245860819</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1486430838.73977</v>
+        <v>1310141201.794236</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1223943413754655</v>
+        <v>0.1100152368141558</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03910468676113619</v>
+        <v>0.03961154110898967</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2102366083.065988</v>
+        <v>2592843078.239259</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1006935762403402</v>
+        <v>0.1414776765501857</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04477492800687385</v>
+        <v>0.0450561276168493</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2952069478.723576</v>
+        <v>3351409742.580519</v>
       </c>
       <c r="F42" t="n">
-        <v>0.105940973360195</v>
+        <v>0.1149099555568004</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04610996595716075</v>
+        <v>0.04484356125625224</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2154846320.816724</v>
+        <v>2218438331.555628</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1581905127713094</v>
+        <v>0.1418825322169068</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02437168158084848</v>
+        <v>0.01746310788942854</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1840468195.856441</v>
+        <v>2158057788.64495</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1000115587853308</v>
+        <v>0.1011770250235373</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02424521110149848</v>
+        <v>0.03091611452468313</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1991520961.996008</v>
+        <v>2492265352.781652</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1671506159369749</v>
+        <v>0.1459831761819202</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04955433976251675</v>
+        <v>0.05625750660032358</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4433656302.10452</v>
+        <v>4427267680.885086</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1681538940341871</v>
+        <v>0.1450024970867513</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03823775988900063</v>
+        <v>0.0415072164300917</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4219657237.97911</v>
+        <v>5103230850.848572</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1229806876866634</v>
+        <v>0.1853617193976253</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05374609099336832</v>
+        <v>0.03937984707474171</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2984816191.024209</v>
+        <v>3190110836.579062</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09482118157306098</v>
+        <v>0.07884774228889307</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03630103419395245</v>
+        <v>0.029113317787014</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1957196686.446912</v>
+        <v>1759754437.028153</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1734403092771343</v>
+        <v>0.1528246492707286</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04405827418260269</v>
+        <v>0.03832237528233692</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,16 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3422484536.507384</v>
+        <v>3635492017.666415</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1587399735086943</v>
+        <v>0.1341351106911626</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03501679684577105</v>
+        <v>0.0383475580409054</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1373820682.115785</v>
+        <v>1471478742.16926</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1952041914171165</v>
+        <v>0.1268359211614639</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03960275407599417</v>
+        <v>0.05365291120729124</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4500095723.283798</v>
+        <v>3216114165.618928</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1368477930075608</v>
+        <v>0.09325168516042838</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04472217756389198</v>
+        <v>0.04352590377504161</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2588547925.357625</v>
+        <v>2623073186.161761</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1724606959362988</v>
+        <v>0.1675446894106287</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02214409833862594</v>
+        <v>0.02818882956259658</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3257793779.20823</v>
+        <v>3913610886.272249</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1356207365051184</v>
+        <v>0.1663661308134837</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04092505805518802</v>
+        <v>0.03348477373734387</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3959255786.492055</v>
+        <v>4942670633.140854</v>
       </c>
       <c r="F55" t="n">
-        <v>0.199608778251272</v>
+        <v>0.2158565379477912</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02675360247079388</v>
+        <v>0.02026610900223446</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1778300356.376605</v>
+        <v>1862785477.014894</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1649564217560325</v>
+        <v>0.1444629295487143</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05831461669189244</v>
+        <v>0.05161676823733877</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2799620767.083334</v>
+        <v>4228289919.460678</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1756331642775185</v>
+        <v>0.137816502846514</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0198209548703348</v>
+        <v>0.02566904579229541</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1623015769.047111</v>
+        <v>1230760787.772876</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1910757199154873</v>
+        <v>0.191873180029614</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02878231904650462</v>
+        <v>0.03903152410828667</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,22 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5411781980.604405</v>
+        <v>5166320060.645565</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1235905047807754</v>
+        <v>0.1196990947166438</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03054127661829915</v>
+        <v>0.04431038157867999</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2110,16 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2936149404.569895</v>
+        <v>3168041646.854086</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1575402831415954</v>
+        <v>0.1916160136525276</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02976581208372352</v>
+        <v>0.03158649753010373</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2852422367.373552</v>
+        <v>2591675028.431541</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1782993660485761</v>
+        <v>0.1607789989117978</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02068456008893967</v>
+        <v>0.02942046531287009</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1818763887.380205</v>
+        <v>1793881259.965838</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1698351044370301</v>
+        <v>0.1432165915226632</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04327243452009766</v>
+        <v>0.03287987775219418</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4386682062.652078</v>
+        <v>4169657886.273932</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09435308780621665</v>
+        <v>0.07029590937516163</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04556716786852443</v>
+        <v>0.03685003960665792</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3574129420.372355</v>
+        <v>5161393209.659671</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1827595759917312</v>
+        <v>0.1572734006651862</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02564537969291042</v>
+        <v>0.03542749917433093</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,13 +2250,13 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5348769375.957466</v>
+        <v>4557256529.607614</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1566605952664058</v>
+        <v>0.125046124133865</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02515523671962977</v>
+        <v>0.01977188016157657</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5392000827.758277</v>
+        <v>3984101713.153153</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1154194321409042</v>
+        <v>0.1053410801125178</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03677638427603185</v>
+        <v>0.03315332688621822</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3257901675.885646</v>
+        <v>2846432698.954642</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07021022206445103</v>
+        <v>0.08937941155388721</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04294843973747173</v>
+        <v>0.04518923957105675</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5479350135.026746</v>
+        <v>4215050788.675259</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1026142391245264</v>
+        <v>0.1394731435263867</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03292601156442453</v>
+        <v>0.04219549295440647</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2348135832.769735</v>
+        <v>2194758409.736126</v>
       </c>
       <c r="F69" t="n">
-        <v>0.164860742068084</v>
+        <v>0.1415034583931176</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05693463385428154</v>
+        <v>0.05782714622246583</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2254803127.868132</v>
+        <v>2283707384.860394</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09335768354102432</v>
+        <v>0.08769685490902962</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04481672873545461</v>
+        <v>0.03937054541712433</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5332001242.392154</v>
+        <v>4723381556.329761</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1302551400415461</v>
+        <v>0.1518644725083653</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03247130466733818</v>
+        <v>0.02823923879464242</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1750042018.119745</v>
+        <v>2254219313.072789</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1057509676133045</v>
+        <v>0.08033111209948206</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04316999261030359</v>
+        <v>0.03640197265624492</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2447127347.262602</v>
+        <v>2379817361.164515</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09131814982308922</v>
+        <v>0.1107428776802272</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04089167582788895</v>
+        <v>0.03954713243802545</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2421500777.269742</v>
+        <v>3222594949.328796</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1617904276135962</v>
+        <v>0.1636226091655668</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02541073285714204</v>
+        <v>0.02203430158812719</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2240522128.415985</v>
+        <v>2214499216.919729</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1461778610671852</v>
+        <v>0.1209270545247987</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03488316211223922</v>
+        <v>0.03730071626572178</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3736091375.160276</v>
+        <v>4669920426.857953</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09124887549151264</v>
+        <v>0.1142609975593464</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02289812237648243</v>
+        <v>0.03244073493838236</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1429474882.76127</v>
+        <v>2263070349.844029</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1378002617971718</v>
+        <v>0.167774507782632</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02605848964505456</v>
+        <v>0.01958880289964025</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3966879945.192897</v>
+        <v>2974762347.50572</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1299036854531598</v>
+        <v>0.1209850119495182</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05490336276516695</v>
+        <v>0.05437111110076163</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1790837838.283596</v>
+        <v>1299011517.79694</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1709896725032582</v>
+        <v>0.1327138686961171</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03785010725884719</v>
+        <v>0.0366618042054745</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4859573979.011507</v>
+        <v>5472733557.203146</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07427820206610723</v>
+        <v>0.09439731318311112</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02587740711252563</v>
+        <v>0.02540684240226519</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4073503075.32453</v>
+        <v>3749715340.143201</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1053055226178968</v>
+        <v>0.1191088353890607</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03107104993881424</v>
+        <v>0.0292699558900427</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4063248214.544804</v>
+        <v>5284668809.571386</v>
       </c>
       <c r="F82" t="n">
-        <v>0.164819267552432</v>
+        <v>0.2155876375228051</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02325323861140975</v>
+        <v>0.02676292308263528</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1771595044.776122</v>
+        <v>1743263456.651433</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1547738269607776</v>
+        <v>0.09679671944633415</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04253154230010605</v>
+        <v>0.03078152816654771</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,16 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2429795750.188266</v>
+        <v>2015148903.411899</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08172143566693398</v>
+        <v>0.09917956890082001</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04227755942226948</v>
+        <v>0.03626103478735822</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2309890338.355948</v>
+        <v>3504336699.153008</v>
       </c>
       <c r="F85" t="n">
-        <v>0.111295077706614</v>
+        <v>0.1297239647343826</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0524375154716823</v>
+        <v>0.04642083578479288</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1796746843.810248</v>
+        <v>2697290052.367263</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1460323539610522</v>
+        <v>0.1241830412966447</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01895634376045997</v>
+        <v>0.01940582639450893</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1342290505.227638</v>
+        <v>1102105693.247039</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1594618101878194</v>
+        <v>0.1362587492763991</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03211732101428545</v>
+        <v>0.03029887605243169</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3434327986.249196</v>
+        <v>3180235381.809133</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1432280603064802</v>
+        <v>0.1555188201109265</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02583033475641303</v>
+        <v>0.0384331017195789</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2893312106.528412</v>
+        <v>3151206074.757027</v>
       </c>
       <c r="F89" t="n">
-        <v>0.13271440883496</v>
+        <v>0.137045275298595</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03183925203034793</v>
+        <v>0.02877795315118178</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1426616676.022798</v>
+        <v>1825349673.021972</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1267813519191788</v>
+        <v>0.08394657246189599</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05328107188433949</v>
+        <v>0.04608123787062373</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,16 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1840425483.992673</v>
+        <v>1710397440.782294</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1285525504122939</v>
+        <v>0.1501904490588273</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05025841270838587</v>
+        <v>0.05311894489627297</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2993481797.664485</v>
+        <v>2805265222.258687</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07478296073778112</v>
+        <v>0.1100393774053223</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03568124219120767</v>
+        <v>0.03604564020264805</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3758071539.570864</v>
+        <v>4162245373.757403</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1049468060939214</v>
+        <v>0.1415859845037767</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03369325876220264</v>
+        <v>0.04320479633659412</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1772565814.988636</v>
+        <v>2346767029.431181</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1361622422647412</v>
+        <v>0.1526821730179642</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04031446063368212</v>
+        <v>0.04050582408929335</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2727774867.61866</v>
+        <v>2305314454.024917</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1381957790475695</v>
+        <v>0.1135287862326452</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03228912686772616</v>
+        <v>0.03342065407288225</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2122623466.533114</v>
+        <v>1825311821.750709</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09089501578446647</v>
+        <v>0.1125329893870901</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03771135555525311</v>
+        <v>0.03664013187425409</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,13 +3146,13 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4127928025.70569</v>
+        <v>5227153424.541721</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1409638283369542</v>
+        <v>0.1735560667727603</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02885046827640178</v>
+        <v>0.02777736266120256</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3168,22 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3427358475.934773</v>
+        <v>3136734151.002766</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1111919357057976</v>
+        <v>0.09115771784262586</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0323633786358682</v>
+        <v>0.03065281281537589</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3290672205.649475</v>
+        <v>2139307739.583063</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09860312257592029</v>
+        <v>0.1420738555887757</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02270016219608353</v>
+        <v>0.02528890081106468</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3141987385.864926</v>
+        <v>3871659998.856009</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1185992412557177</v>
+        <v>0.1551029893927074</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02355613768772353</v>
+        <v>0.02036727169846096</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2814003064.576085</v>
+        <v>2612555818.955066</v>
       </c>
       <c r="F101" t="n">
-        <v>0.217109205480105</v>
+        <v>0.1851058345798457</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05658866137696204</v>
+        <v>0.05142337399906025</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_376.xlsx
+++ b/output/fit_clients/fit_round_376.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2471159605.472816</v>
+        <v>2357673292.563845</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07493323965921729</v>
+        <v>0.09410276455812421</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03381154019587533</v>
+        <v>0.03449844408614097</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1867644355.697357</v>
+        <v>1730866798.262116</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1544579076529711</v>
+        <v>0.1382333674022644</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04526116514352548</v>
+        <v>0.04893054382384817</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3195920139.593865</v>
+        <v>3273808454.700065</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1298490895536744</v>
+        <v>0.1631227416076162</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03562551461111939</v>
+        <v>0.02682954708535727</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>193</v>
+      </c>
+      <c r="J4" t="n">
+        <v>375</v>
+      </c>
+      <c r="K4" t="n">
+        <v>37.66045079898836</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2790483692.500961</v>
+        <v>2967823918.371179</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1005933912905746</v>
+        <v>0.1079098140564972</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04085337696521724</v>
+        <v>0.03793486515997085</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>150</v>
+      </c>
+      <c r="J5" t="n">
+        <v>372</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2079136139.618021</v>
+        <v>1785716646.794114</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1473059337646659</v>
+        <v>0.1122838212044621</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05131615091278449</v>
+        <v>0.05287481924648731</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2232773182.477313</v>
+        <v>2893625626.807408</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08007099673841368</v>
+        <v>0.06818299519329767</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03731940034069774</v>
+        <v>0.04638932197033659</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3577630057.714942</v>
+        <v>3711696166.129273</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1489909560493212</v>
+        <v>0.2115510326977919</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02135096339241022</v>
+        <v>0.02342514162951331</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>99</v>
+      </c>
+      <c r="J8" t="n">
+        <v>376</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1621535850.010132</v>
+        <v>2119465566.986376</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1681459313493616</v>
+        <v>0.1931261036445095</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02536360447388057</v>
+        <v>0.02670673810379677</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4722341481.731656</v>
+        <v>5376680837.347747</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1591137804363605</v>
+        <v>0.2048197927643198</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0540584833342747</v>
+        <v>0.04468722134972713</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>310</v>
+      </c>
+      <c r="J10" t="n">
+        <v>375</v>
+      </c>
+      <c r="K10" t="n">
+        <v>54.68798867123612</v>
       </c>
     </row>
     <row r="11">
@@ -738,16 +820,25 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4248168503.6553</v>
+        <v>3932528002.906521</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1735268627107731</v>
+        <v>0.1822829709013251</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04217412512989152</v>
+        <v>0.03627619728453489</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>157</v>
+      </c>
+      <c r="J11" t="n">
+        <v>376</v>
+      </c>
+      <c r="K11" t="n">
+        <v>63.19604580327826</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2967787447.239899</v>
+        <v>2304605315.255155</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1849118359607994</v>
+        <v>0.1723914215405349</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0388888184647954</v>
+        <v>0.04885071882206177</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +886,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3642340694.210092</v>
+        <v>5198729426.576374</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07037167114038716</v>
+        <v>0.08301771128508079</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02812484406162332</v>
+        <v>0.02159548650688653</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>195</v>
+      </c>
+      <c r="J13" t="n">
+        <v>376</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3637994208.69946</v>
+        <v>2709187259.311874</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1303363051552733</v>
+        <v>0.1472367794074902</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03402337107556686</v>
+        <v>0.03978024557457691</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>78</v>
+      </c>
+      <c r="J14" t="n">
+        <v>373</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1657397930.715849</v>
+        <v>1587961595.464579</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07277605442570409</v>
+        <v>0.1086706728400581</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0397836150138127</v>
+        <v>0.04612408167608427</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +997,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1849715489.726307</v>
+        <v>2102560874.050895</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09097440043959278</v>
+        <v>0.07830724991217686</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03954717461497298</v>
+        <v>0.0403528557028924</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1026,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3255778499.665488</v>
+        <v>3202278479.459855</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1277254838774266</v>
+        <v>0.115364920735216</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03958495451245111</v>
+        <v>0.05250865270645118</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>178</v>
+      </c>
+      <c r="J17" t="n">
+        <v>375</v>
+      </c>
+      <c r="K17" t="n">
+        <v>36.24082793630046</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3410278216.978983</v>
+        <v>2799199705.810163</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1221488958511078</v>
+        <v>0.1370905131816611</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02272887357469817</v>
+        <v>0.03320213673972933</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>92</v>
+      </c>
+      <c r="J18" t="n">
+        <v>372</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>906568555.9889786</v>
+        <v>1019937681.281755</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1524580128138819</v>
+        <v>0.1192101775514351</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02233448236911874</v>
+        <v>0.01996878747867066</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2375272735.963033</v>
+        <v>2757049776.245907</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1366318410811712</v>
+        <v>0.1615737186101254</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02144309955168023</v>
+        <v>0.02370087583630593</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1174,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2661413218.941861</v>
+        <v>2587005719.2868</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07703275286372466</v>
+        <v>0.09741400147682268</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03539228575695173</v>
+        <v>0.03896784127855957</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3830998551.786856</v>
+        <v>3106733426.817423</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1031957402586161</v>
+        <v>0.117818377059841</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05267220099752574</v>
+        <v>0.03633960462179404</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>105</v>
+      </c>
+      <c r="J22" t="n">
+        <v>370</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1470393727.038932</v>
+        <v>1068912482.230543</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1251976943443245</v>
+        <v>0.1153961819193156</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03723511884498543</v>
+        <v>0.04479589047282662</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3441832726.215618</v>
+        <v>3882571055.127417</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1066967989163385</v>
+        <v>0.1435626741066468</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03683880496056238</v>
+        <v>0.03627895899519171</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>115</v>
+      </c>
+      <c r="J24" t="n">
+        <v>376</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1171797285.043059</v>
+        <v>1440880451.943545</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1120720513429871</v>
+        <v>0.1152652976323474</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02861066971629514</v>
+        <v>0.02879790882992527</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>918680571.8490511</v>
+        <v>1028259033.083249</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08856216293505431</v>
+        <v>0.08942814309477917</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0364412537642036</v>
+        <v>0.03183119657041573</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1378,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3623120963.867072</v>
+        <v>4350749505.556212</v>
       </c>
       <c r="F27" t="n">
-        <v>0.130753187577211</v>
+        <v>0.1310990702717456</v>
       </c>
       <c r="G27" t="n">
-        <v>0.026384237240971</v>
+        <v>0.02270137610051812</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>156</v>
+      </c>
+      <c r="J27" t="n">
+        <v>376</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1413,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2385651735.593798</v>
+        <v>3778000948.572232</v>
       </c>
       <c r="F28" t="n">
-        <v>0.111063563713532</v>
+        <v>0.09298500270718232</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04202121249137444</v>
+        <v>0.03761080389258503</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>87</v>
+      </c>
+      <c r="J28" t="n">
+        <v>376</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,23 +1448,30 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4619373361.043672</v>
+        <v>4144371806.26002</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1356129791263158</v>
+        <v>0.1515865753031917</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0284597852695343</v>
+        <v>0.04405070755790573</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>326</v>
+      </c>
+      <c r="J29" t="n">
+        <v>376</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1483,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1775459048.70533</v>
+        <v>1652944445.053884</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1182225498092648</v>
+        <v>0.1389525882405605</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03967402954917588</v>
+        <v>0.03336356983673975</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1518,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1125094095.263866</v>
+        <v>1492655560.985878</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0838077224574531</v>
+        <v>0.08142690993557071</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03988142008498242</v>
+        <v>0.03510859770415167</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1553,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1775078227.89096</v>
+        <v>1318837395.932682</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1005410405957694</v>
+        <v>0.08041487740137145</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02365596841830093</v>
+        <v>0.03277118208948405</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1588,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2090069028.557473</v>
+        <v>1907971723.179787</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1274289510245891</v>
+        <v>0.1522403545806034</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05074264204930443</v>
+        <v>0.05839007206492557</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1623,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1418933796.592313</v>
+        <v>1012011822.404483</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08247573722916858</v>
+        <v>0.08780258003469212</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02746182151228606</v>
+        <v>0.0240352977095872</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1658,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1231101916.091142</v>
+        <v>1280038531.123258</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1012904850450912</v>
+        <v>0.08237635505995362</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03056696074477563</v>
+        <v>0.03391100642287192</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1693,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3216657125.639889</v>
+        <v>1961234982.881079</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1343917496630206</v>
+        <v>0.1130620748997526</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02641277750567482</v>
+        <v>0.02674045269118919</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1734,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2077137985.429349</v>
+        <v>2707491214.818333</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1021166667492481</v>
+        <v>0.09276230670642768</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0410330010214516</v>
+        <v>0.03571954587398694</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1763,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1505674422.015059</v>
+        <v>1920934133.866098</v>
       </c>
       <c r="F38" t="n">
-        <v>0.110716961353681</v>
+        <v>0.1152728279549074</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0269961525884298</v>
+        <v>0.03640530316930739</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1798,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1468667887.634582</v>
+        <v>1676937819.814565</v>
       </c>
       <c r="F39" t="n">
-        <v>0.190307376029156</v>
+        <v>0.138986682916</v>
       </c>
       <c r="G39" t="n">
-        <v>0.023982245860819</v>
+        <v>0.02779221250531878</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1833,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1310141201.794236</v>
+        <v>1313098863.287487</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1100152368141558</v>
+        <v>0.1469621497795369</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03961154110898967</v>
+        <v>0.05090373376409322</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1868,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2592843078.239259</v>
+        <v>2747790693.544361</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1414776765501857</v>
+        <v>0.1444652801769423</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0450561276168493</v>
+        <v>0.04737678979447704</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1903,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3351409742.580519</v>
+        <v>3263590719.151697</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1149099555568004</v>
+        <v>0.08068469887973487</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04484356125625224</v>
+        <v>0.04125518914526653</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>166</v>
+      </c>
+      <c r="J42" t="n">
+        <v>375</v>
+      </c>
+      <c r="K42" t="n">
+        <v>42.44514822463837</v>
       </c>
     </row>
     <row r="43">
@@ -1634,17 +1946,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2218438331.555628</v>
+        <v>2696694253.381684</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1418825322169068</v>
+        <v>0.1742581388494526</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01746310788942854</v>
+        <v>0.01767264245788946</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1975,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2158057788.64495</v>
+        <v>1896495521.322947</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1011770250235373</v>
+        <v>0.07937308131051758</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03091611452468313</v>
+        <v>0.0284240391076583</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2010,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2492265352.781652</v>
+        <v>1639652291.609453</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1459831761819202</v>
+        <v>0.1588036551583188</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05625750660032358</v>
+        <v>0.05174657643217429</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2045,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4427267680.885086</v>
+        <v>5117256643.704613</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1450024970867513</v>
+        <v>0.1464450926949024</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0415072164300917</v>
+        <v>0.044754203734742</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>225</v>
+      </c>
+      <c r="J46" t="n">
+        <v>375</v>
+      </c>
+      <c r="K46" t="n">
+        <v>54.57212632803805</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +2088,25 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5103230850.848572</v>
+        <v>3680694009.506061</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1853617193976253</v>
+        <v>0.1481505773247776</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03937984707474171</v>
+        <v>0.05086609735709512</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>168</v>
+      </c>
+      <c r="J47" t="n">
+        <v>375</v>
+      </c>
+      <c r="K47" t="n">
+        <v>43.94055916398094</v>
       </c>
     </row>
     <row r="48">
@@ -1774,16 +2125,25 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3190110836.579062</v>
+        <v>3850695080.670431</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07884774228889307</v>
+        <v>0.08048290823004994</v>
       </c>
       <c r="G48" t="n">
-        <v>0.029113317787014</v>
+        <v>0.03012522464402669</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>195</v>
+      </c>
+      <c r="J48" t="n">
+        <v>375</v>
+      </c>
+      <c r="K48" t="n">
+        <v>50.59834194532037</v>
       </c>
     </row>
     <row r="49">
@@ -1802,17 +2162,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1759754437.028153</v>
+        <v>1988308654.343362</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1528246492707286</v>
+        <v>0.1371697796766438</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03832237528233692</v>
+        <v>0.02987186637368865</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2191,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3635492017.666415</v>
+        <v>3833049833.800259</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1341351106911626</v>
+        <v>0.1129676305925439</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0383475580409054</v>
+        <v>0.04202794324554439</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>126</v>
+      </c>
+      <c r="J50" t="n">
+        <v>376</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1471478742.16926</v>
+        <v>1152563118.853266</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1268359211614639</v>
+        <v>0.1568204550217137</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05365291120729124</v>
+        <v>0.03359591379826218</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,16 +2267,25 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3216114165.618928</v>
+        <v>4253093071.093046</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09325168516042838</v>
+        <v>0.1370151289663993</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04352590377504161</v>
+        <v>0.04505528983417326</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>221</v>
+      </c>
+      <c r="J52" t="n">
+        <v>375</v>
+      </c>
+      <c r="K52" t="n">
+        <v>54.14675110057873</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2623073186.161761</v>
+        <v>2570761509.248894</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1675446894106287</v>
+        <v>0.1531309556149735</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02818882956259658</v>
+        <v>0.02728868655154651</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>52</v>
+      </c>
+      <c r="J53" t="n">
+        <v>357</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2333,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3913610886.272249</v>
+        <v>4166851803.799875</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1663661308134837</v>
+        <v>0.1144980778260858</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03348477373734387</v>
+        <v>0.04825229229090762</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>200</v>
+      </c>
+      <c r="J54" t="n">
+        <v>376</v>
+      </c>
+      <c r="K54" t="n">
+        <v>57.28823156235414</v>
       </c>
     </row>
     <row r="55">
@@ -1970,17 +2376,24 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4942670633.140854</v>
+        <v>4170998946.199203</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2158565379477912</v>
+        <v>0.2239669744875505</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02026610900223446</v>
+        <v>0.02481972088357132</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>180</v>
+      </c>
+      <c r="J55" t="n">
+        <v>376</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1862785477.014894</v>
+        <v>1848704630.586135</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1444629295487143</v>
+        <v>0.1121837344139707</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05161676823733877</v>
+        <v>0.04307369390506519</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2440,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4228289919.460678</v>
+        <v>4165048480.370377</v>
       </c>
       <c r="F57" t="n">
-        <v>0.137816502846514</v>
+        <v>0.1164001084413111</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02566904579229541</v>
+        <v>0.02499501819412216</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>158</v>
+      </c>
+      <c r="J57" t="n">
+        <v>376</v>
+      </c>
+      <c r="K57" t="n">
+        <v>57.19789751435264</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1230760787.772876</v>
+        <v>1835043953.618556</v>
       </c>
       <c r="F58" t="n">
-        <v>0.191873180029614</v>
+        <v>0.1739752436689939</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03903152410828667</v>
+        <v>0.03372370233326762</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,16 +2518,25 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5166320060.645565</v>
+        <v>4452742180.773204</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1196990947166438</v>
+        <v>0.1227951018058379</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04431038157867999</v>
+        <v>0.04381870417060933</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>183</v>
+      </c>
+      <c r="J59" t="n">
+        <v>375</v>
+      </c>
+      <c r="K59" t="n">
+        <v>54.23531859984471</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2549,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3168041646.854086</v>
+        <v>3566689565.142623</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1916160136525276</v>
+        <v>0.2011489956101106</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03158649753010373</v>
+        <v>0.0239411214327329</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>68</v>
+      </c>
+      <c r="J60" t="n">
+        <v>376</v>
+      </c>
+      <c r="K60" t="n">
+        <v>65.25214541549146</v>
       </c>
     </row>
     <row r="61">
@@ -2132,23 +2586,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2591675028.431541</v>
+        <v>3249796730.769323</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1607789989117978</v>
+        <v>0.1677820596741853</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02942046531287009</v>
+        <v>0.03305063132000545</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>12</v>
+      </c>
+      <c r="J61" t="n">
+        <v>362</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2621,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1793881259.965838</v>
+        <v>1874286824.575538</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1432165915226632</v>
+        <v>0.1866217087280318</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03287987775219418</v>
+        <v>0.04185338829986984</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2656,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4169657886.273932</v>
+        <v>4533753906.173939</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07029590937516163</v>
+        <v>0.1044672785504245</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03685003960665792</v>
+        <v>0.04707646277516794</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>185</v>
+      </c>
+      <c r="J63" t="n">
+        <v>375</v>
+      </c>
+      <c r="K63" t="n">
+        <v>55.42062543798507</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2699,25 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5161393209.659671</v>
+        <v>4382655330.757852</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1572734006651862</v>
+        <v>0.1761549604487797</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03542749917433093</v>
+        <v>0.02518819871999668</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>187</v>
+      </c>
+      <c r="J64" t="n">
+        <v>375</v>
+      </c>
+      <c r="K64" t="n">
+        <v>54.39478767765421</v>
       </c>
     </row>
     <row r="65">
@@ -2244,23 +2730,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4557256529.607614</v>
+        <v>4262403484.003469</v>
       </c>
       <c r="F65" t="n">
-        <v>0.125046124133865</v>
+        <v>0.148952849250258</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01977188016157657</v>
+        <v>0.02715090963174811</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>283</v>
+      </c>
+      <c r="J65" t="n">
+        <v>376</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,22 +2765,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3984101713.153153</v>
+        <v>4603394961.547165</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1053410801125178</v>
+        <v>0.1580848454162819</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03315332688621822</v>
+        <v>0.04238424694281105</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>186</v>
+      </c>
+      <c r="J66" t="n">
+        <v>375</v>
+      </c>
+      <c r="K66" t="n">
+        <v>51.83881150391039</v>
       </c>
     </row>
     <row r="67">
@@ -2306,17 +2808,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2846432698.954642</v>
+        <v>2215801176.279449</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08937941155388721</v>
+        <v>0.08797442100357855</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04518923957105675</v>
+        <v>0.03654943127518186</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>312</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,16 +2843,25 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4215050788.675259</v>
+        <v>4807710948.505953</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1394731435263867</v>
+        <v>0.1311418005357261</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04219549295440647</v>
+        <v>0.03946605403950037</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>204</v>
+      </c>
+      <c r="J68" t="n">
+        <v>375</v>
+      </c>
+      <c r="K68" t="n">
+        <v>52.97914797879243</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2874,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2194758409.736126</v>
+        <v>1652812995.141371</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1415034583931176</v>
+        <v>0.161156753973614</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05782714622246583</v>
+        <v>0.04992172897851412</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2909,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2283707384.860394</v>
+        <v>2772604855.489088</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08769685490902962</v>
+        <v>0.07293545976970449</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03937054541712433</v>
+        <v>0.04118593179856178</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>52</v>
+      </c>
+      <c r="J70" t="n">
+        <v>361</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2944,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4723381556.329761</v>
+        <v>4281517572.506592</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1518644725083653</v>
+        <v>0.1540004352130634</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02823923879464242</v>
+        <v>0.02186215786610481</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>269</v>
+      </c>
+      <c r="J71" t="n">
+        <v>376</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2979,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2254219313.072789</v>
+        <v>1816001311.681247</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08033111209948206</v>
+        <v>0.07964177749216052</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03640197265624492</v>
+        <v>0.04337796231437206</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3014,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2379817361.164515</v>
+        <v>3570269681.119061</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1107428776802272</v>
+        <v>0.1100546308487004</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03954713243802545</v>
+        <v>0.05124662302955112</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>25</v>
+      </c>
+      <c r="J73" t="n">
+        <v>376</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3049,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3222594949.328796</v>
+        <v>2907437863.145161</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1636226091655668</v>
+        <v>0.1114731298967711</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02203430158812719</v>
+        <v>0.02279109466333764</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>107</v>
+      </c>
+      <c r="J74" t="n">
+        <v>373</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3084,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2214499216.919729</v>
+        <v>2004816415.931055</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1209270545247987</v>
+        <v>0.102714387618994</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03730071626572178</v>
+        <v>0.03010371842222575</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,16 +3125,25 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4669920426.857953</v>
+        <v>3701902100.807952</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1142609975593464</v>
+        <v>0.09337177351605057</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03244073493838236</v>
+        <v>0.02569469000779056</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>178</v>
+      </c>
+      <c r="J76" t="n">
+        <v>375</v>
+      </c>
+      <c r="K76" t="n">
+        <v>46.45994814234133</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3156,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2263070349.844029</v>
+        <v>1762119224.022905</v>
       </c>
       <c r="F77" t="n">
-        <v>0.167774507782632</v>
+        <v>0.122099954628608</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01958880289964025</v>
+        <v>0.02956800661194079</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3191,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2974762347.50572</v>
+        <v>3558406756.58697</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1209850119495182</v>
+        <v>0.1003272089900798</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05437111110076163</v>
+        <v>0.03867697538637233</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>188</v>
+      </c>
+      <c r="J78" t="n">
+        <v>374</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2642,17 +3232,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1299011517.79694</v>
+        <v>1415714529.827126</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1327138686961171</v>
+        <v>0.1504462474561503</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0366618042054745</v>
+        <v>0.03134644679581894</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3261,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5472733557.203146</v>
+        <v>3918766645.253631</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09439731318311112</v>
+        <v>0.09261673785459656</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02540684240226519</v>
+        <v>0.03878430586755321</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>183</v>
+      </c>
+      <c r="J80" t="n">
+        <v>376</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3296,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3749715340.143201</v>
+        <v>4595393371.585054</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1191088353890607</v>
+        <v>0.0928991767834442</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0292699558900427</v>
+        <v>0.02045404987386475</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>174</v>
+      </c>
+      <c r="J81" t="n">
+        <v>376</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2726,17 +3337,24 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5284668809.571386</v>
+        <v>3437458037.645734</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2155876375228051</v>
+        <v>0.1734311894716739</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02676292308263528</v>
+        <v>0.02809695804869418</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
       </c>
+      <c r="I82" t="n">
+        <v>261</v>
+      </c>
+      <c r="J82" t="n">
+        <v>374</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1743263456.651433</v>
+        <v>1803609376.450844</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09679671944633415</v>
+        <v>0.1170352553458665</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03078152816654771</v>
+        <v>0.03457088654179165</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2015148903.411899</v>
+        <v>1789566643.812385</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09917956890082001</v>
+        <v>0.1080312755615274</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03626103478735822</v>
+        <v>0.04508782437100655</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3504336699.153008</v>
+        <v>3087818347.391899</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1297239647343826</v>
+        <v>0.1366555953104539</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04642083578479288</v>
+        <v>0.03642763132276017</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>50</v>
+      </c>
+      <c r="J85" t="n">
+        <v>373</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2697290052.367263</v>
+        <v>1872077870.139618</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1241830412966447</v>
+        <v>0.1392590063886734</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01940582639450893</v>
+        <v>0.02531619373728523</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1102105693.247039</v>
+        <v>1239269698.994566</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1362587492763991</v>
+        <v>0.1417076867436983</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03029887605243169</v>
+        <v>0.03273305739901154</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3180235381.809133</v>
+        <v>3511158887.430081</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1555188201109265</v>
+        <v>0.1664447036466109</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0384331017195789</v>
+        <v>0.029430599956376</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>48</v>
+      </c>
+      <c r="J88" t="n">
+        <v>374</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3582,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3151206074.757027</v>
+        <v>2201071710.16513</v>
       </c>
       <c r="F89" t="n">
-        <v>0.137045275298595</v>
+        <v>0.1082788012101695</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02877795315118178</v>
+        <v>0.03297377762814436</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3617,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1825349673.021972</v>
+        <v>2077079167.322704</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08394657246189599</v>
+        <v>0.1124567033214621</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04608123787062373</v>
+        <v>0.03812596534925326</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1710397440.782294</v>
+        <v>1660824619.372161</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1501904490588273</v>
+        <v>0.1419939374714425</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05311894489627297</v>
+        <v>0.0502848487659437</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2805265222.258687</v>
+        <v>2480395510.379808</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1100393774053223</v>
+        <v>0.07477645841376586</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03604564020264805</v>
+        <v>0.0471447373022672</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3716,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4162245373.757403</v>
+        <v>3965562196.501865</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1415859845037767</v>
+        <v>0.1097963623161395</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04320479633659412</v>
+        <v>0.04150527436633057</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>177</v>
+      </c>
+      <c r="J93" t="n">
+        <v>376</v>
+      </c>
+      <c r="K93" t="n">
+        <v>56.35506549873502</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2346767029.431181</v>
+        <v>2186017919.835083</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1526821730179642</v>
+        <v>0.1657547013794201</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04050582408929335</v>
+        <v>0.04176653617776128</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2305314454.024917</v>
+        <v>2969069596.848457</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1135287862326452</v>
+        <v>0.08838133753326514</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03342065407288225</v>
+        <v>0.05187024430599811</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1825311821.750709</v>
+        <v>1703863427.863833</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1125329893870901</v>
+        <v>0.1180218675379785</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03664013187425409</v>
+        <v>0.04002021798794785</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5227153424.541721</v>
+        <v>5382575673.576891</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1735560667727603</v>
+        <v>0.1247974292188308</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02777736266120256</v>
+        <v>0.01856305422459687</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>194</v>
+      </c>
+      <c r="J97" t="n">
+        <v>376</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3174,16 +3899,25 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3136734151.002766</v>
+        <v>2639476115.655796</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09115771784262586</v>
+        <v>0.1203515850921326</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03065281281537589</v>
+        <v>0.02344736419809463</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>97</v>
+      </c>
+      <c r="J98" t="n">
+        <v>375</v>
+      </c>
+      <c r="K98" t="n">
+        <v>27.40299380189058</v>
       </c>
     </row>
     <row r="99">
@@ -3202,17 +3936,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2139307739.583063</v>
+        <v>2454367547.944238</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1420738555887757</v>
+        <v>0.1086309245986403</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02528890081106468</v>
+        <v>0.02445974274960563</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>7</v>
+      </c>
+      <c r="J99" t="n">
+        <v>348</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,17 +3971,24 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3871659998.856009</v>
+        <v>4235033435.506838</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1551029893927074</v>
+        <v>0.1735713125730051</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02036727169846096</v>
+        <v>0.02040138206718728</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>172</v>
+      </c>
+      <c r="J100" t="n">
+        <v>376</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2612555818.955066</v>
+        <v>2218071260.72808</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1851058345798457</v>
+        <v>0.1676432073395849</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05142337399906025</v>
+        <v>0.04570624071825759</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>34</v>
+      </c>
+      <c r="J101" t="n">
+        <v>374</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
